--- a/docs/Product Backlog.xlsx
+++ b/docs/Product Backlog.xlsx
@@ -543,15 +543,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -563,6 +554,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,13 +861,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23">
+      <c r="B2" s="34">
         <v>43760</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
@@ -891,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D4" s="8">
         <v>10</v>
@@ -1030,13 +1030,13 @@
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="23">
+      <c r="B13" s="34">
         <v>43768</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
@@ -1060,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D15" s="8">
         <v>10</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23">
+      <c r="B24" s="34">
         <v>43776</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
@@ -1219,19 +1219,19 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="31">
-        <v>10</v>
-      </c>
-      <c r="E26" s="32">
-        <v>10</v>
-      </c>
-      <c r="F26" s="33">
+      <c r="C26" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="D26" s="28">
+        <v>10</v>
+      </c>
+      <c r="E26" s="29">
+        <v>10</v>
+      </c>
+      <c r="F26" s="30">
         <v>3</v>
       </c>
     </row>
@@ -1372,19 +1372,19 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="24">
         <v>1</v>
       </c>
-      <c r="D35" s="27">
-        <v>10</v>
-      </c>
-      <c r="E35" s="27">
+      <c r="D35" s="24">
+        <v>10</v>
+      </c>
+      <c r="E35" s="24">
         <v>7</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="25">
         <v>9</v>
       </c>
     </row>
@@ -1406,19 +1406,19 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="32">
         <v>1</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="32">
         <v>7</v>
       </c>
-      <c r="E37" s="35">
-        <v>3</v>
-      </c>
-      <c r="F37" s="36">
+      <c r="E37" s="32">
+        <v>3</v>
+      </c>
+      <c r="F37" s="33">
         <v>7</v>
       </c>
     </row>
